--- a/Az-Region-global-level-resource.xlsx
+++ b/Az-Region-global-level-resource.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vcl-data\Business\Training\Edutech\08-Jan-26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\et-b1-jan26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E93514B-065B-407F-B0E4-47D745A10343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BA8D08-56CF-4249-A1E4-C413C4236D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF6035B7-F294-4539-9994-41907D30EE47}"/>
+    <workbookView xWindow="12795" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AF6035B7-F294-4539-9994-41907D30EE47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="region-distribution" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>Region-Level</t>
   </si>
@@ -84,6 +85,96 @@
   </si>
   <si>
     <t xml:space="preserve">ASG </t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>Dipankar</t>
+  </si>
+  <si>
+    <t>Jayant</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>Kashyap</t>
+  </si>
+  <si>
+    <t>Lakshay</t>
+  </si>
+  <si>
+    <t>Nagaveni</t>
+  </si>
+  <si>
+    <t>Namineni</t>
+  </si>
+  <si>
+    <t>Natrag</t>
+  </si>
+  <si>
+    <t>Pavan</t>
+  </si>
+  <si>
+    <t>sangeetha</t>
+  </si>
+  <si>
+    <t>Siraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinay </t>
+  </si>
+  <si>
+    <t>eastus</t>
+  </si>
+  <si>
+    <t>westus</t>
+  </si>
+  <si>
+    <t>eastus-2</t>
+  </si>
+  <si>
+    <t>westus-2</t>
+  </si>
+  <si>
+    <t>centralus</t>
+  </si>
+  <si>
+    <t>canada central</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Navin</t>
+  </si>
+  <si>
+    <t>Nikhil</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>d2ds_v4</t>
+  </si>
+  <si>
+    <t>d2s_v3</t>
   </si>
 </sst>
 </file>
@@ -115,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -123,13 +214,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,123 +586,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACF0903-E08F-40AD-AAAE-F0F968E73D21}">
-  <dimension ref="C3:F15"/>
+  <dimension ref="B3:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB11ECE-8BB6-40F2-AB90-91087AA0EC4E}">
+  <dimension ref="C4:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
